--- a/media/laporan/2025/07/data-kendaraan-20250701-20250731.xlsx
+++ b/media/laporan/2025/07/data-kendaraan-20250701-20250731.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>DATA KENDARAAN</t>
   </si>
@@ -53,7 +53,169 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Tidak ada data</t>
+    <t>Mitsubishi Colt Diesel Fe 71 ps11d</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>B 1234 N</t>
+  </si>
+  <si>
+    <t>Mitsubishi</t>
+  </si>
+  <si>
+    <t>Kuning</t>
+  </si>
+  <si>
+    <t>Tersedia</t>
+  </si>
+  <si>
+    <t>Mitsubishi Fuso Fighter</t>
+  </si>
+  <si>
+    <t>Fuso</t>
+  </si>
+  <si>
+    <t>N 4321 Z</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Digunakan</t>
+  </si>
+  <si>
+    <t>Suzuki New Carry</t>
+  </si>
+  <si>
+    <t>Pickup</t>
+  </si>
+  <si>
+    <t>F 4938 H</t>
+  </si>
+  <si>
+    <t>Suzuki</t>
+  </si>
+  <si>
+    <t>Putih</t>
+  </si>
+  <si>
+    <t>Diperbaiki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitsubishi New Colt L300 </t>
+  </si>
+  <si>
+    <t>C 6284 B</t>
+  </si>
+  <si>
+    <t>Hitam</t>
+  </si>
+  <si>
+    <t>Hino Lohan FM260JW Long Bak Besi</t>
+  </si>
+  <si>
+    <t>Engkel</t>
+  </si>
+  <si>
+    <t>G 3108 T</t>
+  </si>
+  <si>
+    <t>Hino</t>
+  </si>
+  <si>
+    <t>Hijau</t>
+  </si>
+  <si>
+    <t>Dyna 136HT HI-Gear 4x2 6MT (PTO)</t>
+  </si>
+  <si>
+    <t>O 5581 T</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>Merah</t>
+  </si>
+  <si>
+    <t>Hino Dutro 130HD</t>
+  </si>
+  <si>
+    <t>O 3462 F</t>
+  </si>
+  <si>
+    <t>Gran Max PU 1.5 STD FH E4</t>
+  </si>
+  <si>
+    <t>O 3478 Z</t>
+  </si>
+  <si>
+    <t>Daihatsu</t>
+  </si>
+  <si>
+    <t>Ranger Cargo FLX 280 JW</t>
+  </si>
+  <si>
+    <t>Z 3462 F</t>
+  </si>
+  <si>
+    <t>Hino Dutro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gran Max MB Blind Van 1.3 STD</t>
+  </si>
+  <si>
+    <t>Van</t>
+  </si>
+  <si>
+    <t>G 6621 F</t>
+  </si>
+  <si>
+    <t>Mitsubishi Fuso Center FE 73</t>
+  </si>
+  <si>
+    <t>H 5643 D</t>
+  </si>
+  <si>
+    <t>kuning</t>
+  </si>
+  <si>
+    <t>Mitsubishi Fuso Center FE 71</t>
+  </si>
+  <si>
+    <t>H 3643 B</t>
+  </si>
+  <si>
+    <t>Mitsubishi Fuso Center FE 48G</t>
+  </si>
+  <si>
+    <t>F 6643 D</t>
+  </si>
+  <si>
+    <t>Mitsubishi Fuso Fighter X FN61FS</t>
+  </si>
+  <si>
+    <t>B 6734 D</t>
+  </si>
+  <si>
+    <t>Mitsubishi Fuso Fighter X FN62F TH</t>
+  </si>
+  <si>
+    <t>G 7736 F</t>
+  </si>
+  <si>
+    <t>D Dasilva</t>
+  </si>
+  <si>
+    <t>D 1234 DXX</t>
+  </si>
+  <si>
+    <t>Kemri</t>
+  </si>
+  <si>
+    <t>Dadan Sunandar Sunarya PGH 3</t>
   </si>
 </sst>
 </file>
@@ -98,7 +260,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border/>
     <border>
       <left style="thin">
@@ -114,41 +276,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -164,13 +296,7 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -472,10 +598,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A11" sqref="A11:J11"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -553,24 +679,585 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="7"/>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="5">
+        <v>3908</v>
+      </c>
+      <c r="H11" s="5">
+        <v>3000</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="5">
+        <v>7545</v>
+      </c>
+      <c r="H12" s="5">
+        <v>20000</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1462</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5">
+        <v>4</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="5">
+        <v>2268</v>
+      </c>
+      <c r="H14" s="5">
+        <v>2345</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="5">
+        <v>5</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="5">
+        <v>7684</v>
+      </c>
+      <c r="H15" s="5">
+        <v>26000</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="5">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="5">
+        <v>4009</v>
+      </c>
+      <c r="H16" s="5">
+        <v>4000</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="5">
+        <v>7</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="5">
+        <v>4009</v>
+      </c>
+      <c r="H17" s="5">
+        <v>4900</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="5">
+        <v>8</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1495</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1500</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="5">
+        <v>9</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="5">
+        <v>7684</v>
+      </c>
+      <c r="H19" s="5">
+        <v>32000</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="5">
+        <v>10</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1289</v>
+      </c>
+      <c r="H20" s="5">
+        <v>720</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="5">
+        <v>11</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="5">
+        <v>3907</v>
+      </c>
+      <c r="H21" s="5">
+        <v>7000</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="5">
+        <v>12</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="5">
+        <v>3907</v>
+      </c>
+      <c r="H22" s="5">
+        <v>5150</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="5">
+        <v>13</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="5">
+        <v>3907</v>
+      </c>
+      <c r="H23" s="5">
+        <v>8500</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="5">
+        <v>14</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="5">
+        <v>7545</v>
+      </c>
+      <c r="H24" s="5">
+        <v>26000</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="5">
+        <v>15</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="5">
+        <v>7545</v>
+      </c>
+      <c r="H25" s="5">
+        <v>26000</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="5">
+        <v>16</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="5">
+        <v>2000</v>
+      </c>
+      <c r="H26" s="5">
+        <v>200</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="5">
+        <v>17</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="5">
+        <v>2000</v>
+      </c>
+      <c r="H27" s="5">
+        <v>9</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="5">
+        <v>18</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="5">
+        <v>300</v>
+      </c>
+      <c r="H28" s="5">
+        <v>9</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A11:J11"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
